--- a/eigen documentatie/normalisatieDB.xlsx
+++ b/eigen documentatie/normalisatieDB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23775" windowHeight="9075" xr2:uid="{5E764A16-8EE7-469E-A70B-69CD313D53BC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23775" windowHeight="9075" activeTab="3" xr2:uid="{5E764A16-8EE7-469E-A70B-69CD313D53BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Blad4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="69">
   <si>
     <t>0e normaalvorm</t>
   </si>
@@ -83,21 +84,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>salespage</t>
-  </si>
-  <si>
-    <t>loginpage</t>
-  </si>
-  <si>
-    <t>developmentpage</t>
-  </si>
-  <si>
-    <t>financepage</t>
-  </si>
-  <si>
-    <t>offerte-ID</t>
-  </si>
-  <si>
     <t>offerte number</t>
   </si>
   <si>
@@ -107,18 +93,12 @@
     <t>payement date</t>
   </si>
   <si>
-    <t>customer-ID</t>
-  </si>
-  <si>
     <t>customer name</t>
   </si>
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>phone number</t>
-  </si>
-  <si>
     <t>loginkey</t>
   </si>
   <si>
@@ -146,15 +126,9 @@
     <t>next action</t>
   </si>
   <si>
-    <t>log</t>
-  </si>
-  <si>
     <t>projectname</t>
   </si>
   <si>
-    <t>project-ID</t>
-  </si>
-  <si>
     <t>application</t>
   </si>
   <si>
@@ -174,13 +148,148 @@
   </si>
   <si>
     <t>adress</t>
+  </si>
+  <si>
+    <t>tbl_login</t>
+  </si>
+  <si>
+    <t>tbl_customers</t>
+  </si>
+  <si>
+    <t>tbl_projects</t>
+  </si>
+  <si>
+    <t>tbl_offertes</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>laravel</t>
+  </si>
+  <si>
+    <t>User-ID pk</t>
+  </si>
+  <si>
+    <t>Customer-ID pk</t>
+  </si>
+  <si>
+    <t>Project-ID pk</t>
+  </si>
+  <si>
+    <t>Customer-ID fk</t>
+  </si>
+  <si>
+    <t>Offerte-ID pk</t>
+  </si>
+  <si>
+    <t>Project-ID fk</t>
+  </si>
+  <si>
+    <t>tbl_log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log </t>
+  </si>
+  <si>
+    <t>Log-ID pk</t>
+  </si>
+  <si>
+    <t>Log-ID fk</t>
+  </si>
+  <si>
+    <t>Offerte-ID fk</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">l   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gekleurde zijn in meerde pagina's nodig</t>
+    </r>
+  </si>
+  <si>
+    <t>sales page</t>
+  </si>
+  <si>
+    <t>Log-ID fk (log komt van tbl_log)</t>
+  </si>
+  <si>
+    <t>customer name (wordt ook gebruikt in tbl_offertes)</t>
+  </si>
+  <si>
+    <t>phonenumber (wordt ook gebruikt in tbl_offertes en tbl_projects)</t>
+  </si>
+  <si>
+    <t>development page</t>
+  </si>
+  <si>
+    <t>finance page</t>
+  </si>
+  <si>
+    <t>offerte number (wordt ook gebruikt intbl_offertes en tbl_projects)</t>
+  </si>
+  <si>
+    <t>tbls per webpage</t>
+  </si>
+  <si>
+    <t>login page</t>
+  </si>
+  <si>
+    <t>tbls per database</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +306,77 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -206,7 +386,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -374,11 +554,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -398,6 +677,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -712,16 +1014,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4674FC88-A05D-490F-9F58-E66DBCDB3CA8}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:AB59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,7 +1032,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -738,7 +1040,7 @@
       <c r="C3" s="5"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -746,7 +1048,7 @@
       <c r="C4" s="5"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -754,7 +1056,7 @@
       <c r="C5" s="5"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -762,15 +1064,18 @@
       <c r="C6" s="5"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N7" s="19"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -778,221 +1083,1092 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D13" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D14" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="D15" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="H15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="36"/>
+    </row>
+    <row r="20" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D21" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="6"/>
+    </row>
+    <row r="26" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="6"/>
+    </row>
+    <row r="28" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="6"/>
+    </row>
+    <row r="29" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="6"/>
+    </row>
+    <row r="31" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="6"/>
+    </row>
+    <row r="32" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="6"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="6"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="6"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="6"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="6"/>
+    </row>
+    <row r="37" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="7"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="36"/>
+    </row>
+    <row r="40" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D40" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D41" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="6"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D42" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="6"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D43" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="6"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D44" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="6"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="6"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D46" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="6"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="6"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="D48" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="6"/>
+    </row>
+    <row r="49" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D49" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="6"/>
+    </row>
+    <row r="50" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D50" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="6"/>
+    </row>
+    <row r="51" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D51" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="6"/>
+    </row>
+    <row r="52" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="6"/>
+    </row>
+    <row r="53" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D53" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="6"/>
+    </row>
+    <row r="54" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D54" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="6"/>
+    </row>
+    <row r="55" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D55" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="6"/>
+    </row>
+    <row r="56" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D56" s="33" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="6"/>
+    </row>
+    <row r="57" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D57" s="33" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>29</v>
-      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="6"/>
+    </row>
+    <row r="58" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D58" s="4"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="6"/>
+    </row>
+    <row r="59" spans="4:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="7"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1002,16 +2178,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C4052F-D784-443A-B7AE-46EFA5C67AD4}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:Z58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E8"/>
+      <selection activeCell="B12" sqref="B12:Z58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1020,7 +2196,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1029,14 +2205,14 @@
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1045,7 +2221,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1054,19 +2230,1091 @@
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="21"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="36"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="36"/>
+    </row>
+    <row r="39" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B39" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B40" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="6"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B41" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="6"/>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B42" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="6"/>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="6"/>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="6"/>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="6"/>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="6"/>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B47" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="6"/>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="6"/>
+    </row>
+    <row r="49" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B49" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="6"/>
+    </row>
+    <row r="50" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="6"/>
+    </row>
+    <row r="51" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="6"/>
+    </row>
+    <row r="52" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="6"/>
+    </row>
+    <row r="53" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="6"/>
+    </row>
+    <row r="54" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="6"/>
+    </row>
+    <row r="55" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B55" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="6"/>
+    </row>
+    <row r="56" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B56" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="6"/>
+    </row>
+    <row r="57" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="6"/>
+    </row>
+    <row r="58" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="7"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1075,16 +3323,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26B5C4F-FBC1-436E-BAE2-2EFFA8150B87}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:Z55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J5"/>
+      <selection activeCell="B9" sqref="B9:Z55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -1098,7 +3346,7 @@
       <c r="I2" s="11"/>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
@@ -1112,7 +3360,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="14"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>12</v>
       </c>
@@ -1126,7 +3374,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -1138,7 +3386,1079 @@
       <c r="I5" s="16"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="20"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="21"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="36"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="36"/>
+    </row>
+    <row r="36" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B36" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="3"/>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B37" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="6"/>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B38" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="6"/>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B39" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="6"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="6"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="6"/>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="6"/>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="6"/>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B44" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="6"/>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="6"/>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B46" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="6"/>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="6"/>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="6"/>
+    </row>
+    <row r="49" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="6"/>
+    </row>
+    <row r="50" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="6"/>
+    </row>
+    <row r="51" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="6"/>
+    </row>
+    <row r="52" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B52" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="6"/>
+    </row>
+    <row r="53" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B53" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="6"/>
+    </row>
+    <row r="54" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="6"/>
+    </row>
+    <row r="55" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="7"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1146,16 +4466,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE43B82D-71F0-47BE-B944-3CB6E481C856}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:Z56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
@@ -1169,7 +4489,7 @@
       <c r="I2" s="11"/>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
@@ -1183,7 +4503,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="14"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
@@ -1197,7 +4517,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>15</v>
       </c>
@@ -1211,7 +4531,1079 @@
       <c r="I5" s="16"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="36"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="36"/>
+    </row>
+    <row r="37" spans="2:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B37" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="3"/>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B38" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="6"/>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B39" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="6"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B40" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="6"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="6"/>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="6"/>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="6"/>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="6"/>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B45" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="6"/>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="6"/>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B47" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="6"/>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="6"/>
+    </row>
+    <row r="49" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="6"/>
+    </row>
+    <row r="50" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="6"/>
+    </row>
+    <row r="51" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="6"/>
+    </row>
+    <row r="52" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="6"/>
+    </row>
+    <row r="53" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B53" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="6"/>
+    </row>
+    <row r="54" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B54" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="6"/>
+    </row>
+    <row r="55" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="6"/>
+    </row>
+    <row r="56" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="7"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
